--- a/보고/3팀보고(김홍준).xlsx
+++ b/보고/3팀보고(김홍준).xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdwn\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58615924-593E-4C67-A274-614D07E6CFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92D4AE5-0D4C-4272-BF17-F0852D3476E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="퍼블리싱" sheetId="1" r:id="rId1"/>
+    <sheet name="백앤드" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>페이지</t>
   </si>
@@ -54,137 +55,220 @@
   </si>
   <si>
     <t>김홍준</t>
-  </si>
-  <si>
-    <t>박민수 마이페이지, 오류 페이지</t>
-  </si>
-  <si>
-    <t>김홍준 관리자 페이지, 고객센터, 공지사항</t>
-  </si>
-  <si>
-    <t>민병욱 게시판</t>
-  </si>
-  <si>
-    <t>김영채 과목별 예상 문제, 최다 추천글</t>
-  </si>
-  <si>
-    <t>최예니 로그인, 회원가입, 프로필 등록, 메인 페이지</t>
   </si>
   <si>
     <t>마이페이지
 오류페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>관리자 페이지
 고객센터
 공지사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>과목별 예상문제
 최다 추천글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로그인/회원가입
 프로필 등록
 메인 페이지</t>
+  </si>
+  <si>
+    <t>최예니</t>
+  </si>
+  <si>
+    <t>개인정보 수정</t>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+  </si>
+  <si>
+    <t>글목록</t>
+  </si>
+  <si>
+    <t>고민상담내역</t>
+  </si>
+  <si>
+    <t>문의내역</t>
+  </si>
+  <si>
+    <t>예상문제 수정/삭제</t>
+  </si>
+  <si>
+    <t>오류페이지</t>
+  </si>
+  <si>
+    <t>마이페이지</t>
+  </si>
+  <si>
+    <t>로그인/회원가입</t>
+  </si>
+  <si>
+    <t>학생 또는 교사 로그인</t>
+  </si>
+  <si>
+    <t>소셜로 로그인</t>
+  </si>
+  <si>
+    <t>학교 또는 교사 인증</t>
+  </si>
+  <si>
+    <t>아이디/비밀번호 찾기</t>
+  </si>
+  <si>
+    <t>메인페이지</t>
+  </si>
+  <si>
+    <t>공지사항</t>
+  </si>
+  <si>
+    <t>공지사항 - 수정/삭제</t>
+  </si>
+  <si>
+    <t>고객센터 - 메인</t>
+  </si>
+  <si>
+    <t>고객센터 - 이메일 문의</t>
+  </si>
+  <si>
+    <t>관리자 - 회원관리</t>
+  </si>
+  <si>
+    <t>관리자 - 게시판 관리 수정/삭제</t>
+  </si>
+  <si>
+    <t>관리자 - 학교 관리</t>
+  </si>
+  <si>
+    <t>관리자 - 학교 관리 수정/삭제</t>
+  </si>
+  <si>
+    <t>관리자 - 문의 목록</t>
+  </si>
+  <si>
+    <t>관리자 - 문의 목록 수정/삭제</t>
+  </si>
+  <si>
+    <t>고민게시판(유료)</t>
+  </si>
+  <si>
+    <t>자유게시판</t>
+  </si>
+  <si>
+    <t>학교별 게시판</t>
+  </si>
+  <si>
+    <t>예상문제 메인페이지</t>
+  </si>
+  <si>
+    <t>예상문제 상세보기</t>
+  </si>
+  <si>
+    <t>최다 추천글 메인페이지</t>
+  </si>
+  <si>
+    <t>최다 추천글 상세보기</t>
+  </si>
+  <si>
+    <t>관리자 - 게시글 관리</t>
+  </si>
+  <si>
+    <t>관리자 - 게시판 상세보기(댓글)</t>
+  </si>
+  <si>
+    <t>관리자 - 문의 목록 상세보기(댓글)</t>
+  </si>
+  <si>
+    <t>로그인(반응형)</t>
+  </si>
+  <si>
+    <t>서비스 목록</t>
+  </si>
+  <si>
+    <t>서비스 동의</t>
+  </si>
+  <si>
+    <t>급식 메뉴/가정통신문/학교일정</t>
+  </si>
+  <si>
+    <t>게시글 작성 폼</t>
+  </si>
+  <si>
+    <t>고민게시판</t>
+  </si>
+  <si>
+    <t>게시판 댓글달기(반응형)</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>회원가입
+ 로그인
+메인페이지
+마이 페이지
+게시판</t>
+  </si>
+  <si>
+    <t>관리자 페이지
+ 문의
+ 고객센터
+ 과목별 예상 문제</t>
+  </si>
+  <si>
+    <t>급식메뉴</t>
+  </si>
+  <si>
+    <t>공지사항&amp;가정통신문</t>
+  </si>
+  <si>
+    <t>학교일정</t>
+  </si>
+  <si>
+    <t>아이디 찾기 &amp; 비밀번호 찾기</t>
+  </si>
+  <si>
+    <t>관리자 페이지 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최예니</t>
+    <t>아이디 찾기 &amp; 비밀번호 찾기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개인정보 수정</t>
+    <t>학교관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원탈퇴</t>
+    <t>고객센터 이메일문의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글목록</t>
+    <t>고객센터 1:1문의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고민상담내역</t>
+    <t>공지사항 관리(게시판) - 수정/등록/삭제/조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문의내역</t>
+    <t>회원관리 - 수정/등록/삭제/조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로필 수정</t>
+    <t>문의목록 관리 - 수정/등록/삭제/조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예상문제 수정/삭제</t>
+    <t>과목별 예상문제 - 수정/등록/삭제/조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오류페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항</t>
-  </si>
-  <si>
-    <t>관리자 - 회원관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 - 학교 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 - 문의 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 - 수정/삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 - 게시판 관리 수정/삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 - 학교 관리 수정/삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 - 문의 목록 수정/삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객센터 - 메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객센터 - 이메일 문의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 - 게시판 상세보기(댓글)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 - 문의 목록 상세보기(댓글)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 - 게시글 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>administrator_page_main_use_list_postManage.html</t>
   </si>
 </sst>
 </file>
@@ -284,7 +368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFF5F5D9"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -407,6 +491,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -415,6 +502,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,26 +521,14 @@
     <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -455,7 +539,47 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -488,7 +612,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -498,7 +622,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill>
@@ -792,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q62"/>
+  <dimension ref="B2:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -803,17 +927,16 @@
     <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="8" customWidth="1"/>
-    <col min="7" max="15" width="10.59765625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="48.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="10.59765625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="9" style="4" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="4"/>
+    <col min="6" max="6" width="10.59765625" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="15" width="10.59765625" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="20" width="10.59765625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.4">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45178</v>
@@ -845,53 +968,95 @@
       <c r="O2" s="3">
         <v>45187</v>
       </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="P2" s="3">
+        <v>45188</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>45189</v>
+      </c>
+      <c r="R2" s="3">
+        <v>45190</v>
+      </c>
+      <c r="S2" s="3">
+        <v>45191</v>
+      </c>
+      <c r="T2" s="3">
+        <v>45192</v>
+      </c>
+      <c r="U2" s="3">
+        <v>45193</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F14,F28,F35,F47,F55)</f>
+        <f t="shared" ref="F3:U3" si="0">AVERAGE(F16,F30,F38,F43,F51)</f>
         <v>1.5384615384615385E-3</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G14,G28,G35,G47,G55)</f>
-        <v>2.9230769230769232E-3</v>
+        <f t="shared" si="0"/>
+        <v>8.9230769230769225E-3</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H14,H28,H35,H47,H55)</f>
-        <v>6.9230769230769224E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.0351648351648351E-2</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I14,I28,I35,I47,I55)</f>
-        <v>0.01</v>
+        <f t="shared" si="0"/>
+        <v>0.10971428571428569</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J14,J28,J35,J47,J55)</f>
-        <v>1.3076923076923075E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.1602197802197802</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K14,K28,K35,K47,K55)</f>
-        <v>1.6923076923076923E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.27063736263736266</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L14,L28,L35,L47,L55)</f>
-        <v>6.2307692307692307E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.39459340659340658</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M14,M28,M35,M47,M55)</f>
-        <v>2.3076923076923078E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.48607692307692307</v>
       </c>
       <c r="N3" s="6">
-        <f>AVERAGE(N14,N28,N35,N47,N55)</f>
-        <v>7.5384615384615397E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.61009890109890108</v>
       </c>
       <c r="O3" s="6">
-        <f>AVERAGE(O14,O28,O35,O47,O55)</f>
-        <v>0.12307692307692308</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="0"/>
+        <v>0.76779120879120877</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.78557692307692295</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95584615384615379</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95584615384615379</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.9771428571428572</v>
+      </c>
+      <c r="T3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.98857142857142866</v>
+      </c>
+      <c r="U3" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -930,54 +1095,90 @@
       <c r="O5" s="3">
         <v>45187</v>
       </c>
-    </row>
-    <row r="6" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="12" t="s">
+      <c r="P5" s="3">
+        <v>45188</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>45189</v>
+      </c>
+      <c r="R5" s="3">
+        <v>45190</v>
+      </c>
+      <c r="S5" s="3">
+        <v>45191</v>
+      </c>
+      <c r="T5" s="3">
+        <v>45194</v>
+      </c>
+      <c r="U5" s="3">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>12</v>
+      <c r="C6" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="9">
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="N6" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="O6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="13"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="7" t="s">
-        <v>23</v>
+        <v>0.95</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1</v>
+      </c>
+      <c r="S6" s="9">
+        <v>1</v>
+      </c>
+      <c r="T6" s="9">
+        <v>1</v>
+      </c>
+      <c r="U6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="14"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9">
@@ -987,35 +1188,53 @@
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M7" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N7" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B8" s="13"/>
-      <c r="C8" s="21"/>
+        <v>0.95</v>
+      </c>
+      <c r="P7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1</v>
+      </c>
+      <c r="S7" s="9">
+        <v>1</v>
+      </c>
+      <c r="T7" s="9">
+        <v>1</v>
+      </c>
+      <c r="U7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B8" s="14"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9">
@@ -1034,26 +1253,44 @@
         <v>0</v>
       </c>
       <c r="K8" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L8" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M8" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="N8" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B9" s="13"/>
-      <c r="C9" s="21"/>
+        <v>0.95</v>
+      </c>
+      <c r="P8" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>1</v>
+      </c>
+      <c r="R8" s="9">
+        <v>1</v>
+      </c>
+      <c r="S8" s="9">
+        <v>1</v>
+      </c>
+      <c r="T8" s="9">
+        <v>1</v>
+      </c>
+      <c r="U8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B9" s="14"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9">
@@ -1072,26 +1309,44 @@
         <v>0</v>
       </c>
       <c r="K9" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L9" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M9" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="N9" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B10" s="13"/>
-      <c r="C10" s="21"/>
+        <v>0.95</v>
+      </c>
+      <c r="P9" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>1</v>
+      </c>
+      <c r="R9" s="9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="9">
+        <v>1</v>
+      </c>
+      <c r="T9" s="9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B10" s="14"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9">
@@ -1110,26 +1365,44 @@
         <v>0</v>
       </c>
       <c r="K10" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L10" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M10" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="N10" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B11" s="13"/>
-      <c r="C11" s="21"/>
+        <v>0.95</v>
+      </c>
+      <c r="P10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>1</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1</v>
+      </c>
+      <c r="S10" s="9">
+        <v>1</v>
+      </c>
+      <c r="T10" s="9">
+        <v>1</v>
+      </c>
+      <c r="U10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9">
@@ -1148,26 +1421,44 @@
         <v>0</v>
       </c>
       <c r="K11" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L11" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M11" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="N11" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B12" s="13"/>
-      <c r="C12" s="21"/>
+        <v>0.95</v>
+      </c>
+      <c r="P11" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>1</v>
+      </c>
+      <c r="R11" s="9">
+        <v>1</v>
+      </c>
+      <c r="S11" s="9">
+        <v>1</v>
+      </c>
+      <c r="T11" s="9">
+        <v>1</v>
+      </c>
+      <c r="U11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B12" s="14"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9">
@@ -1180,32 +1471,50 @@
         <v>0</v>
       </c>
       <c r="I12" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J12" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="K12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B13" s="13"/>
-      <c r="C13" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>1</v>
+      </c>
+      <c r="R12" s="9">
+        <v>1</v>
+      </c>
+      <c r="S12" s="9">
+        <v>1</v>
+      </c>
+      <c r="T12" s="9">
+        <v>1</v>
+      </c>
+      <c r="U12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B13" s="14"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9">
@@ -1218,208 +1527,292 @@
         <v>0</v>
       </c>
       <c r="I13" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>1</v>
+      </c>
+      <c r="R13" s="9">
+        <v>1</v>
+      </c>
+      <c r="S13" s="9">
+        <v>1</v>
+      </c>
+      <c r="T13" s="9">
+        <v>1</v>
+      </c>
+      <c r="U13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B14" s="14"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="6">
-        <f t="shared" ref="F14:O14" si="0">AVERAGE(F6:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>26</v>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9">
+        <v>1</v>
+      </c>
+      <c r="O14" s="9">
+        <v>1</v>
+      </c>
+      <c r="P14" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>1</v>
+      </c>
+      <c r="R14" s="9">
+        <v>1</v>
+      </c>
+      <c r="S14" s="9">
+        <v>1</v>
+      </c>
+      <c r="T14" s="9">
+        <v>1</v>
+      </c>
+      <c r="U14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B15" s="14"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="9">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H15" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="9">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="J15" s="9">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="K15" s="9">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L15" s="9">
+        <v>1</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9">
+        <v>1</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>1</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1</v>
+      </c>
+      <c r="S15" s="9">
+        <v>1</v>
+      </c>
+      <c r="T15" s="9">
+        <v>1</v>
+      </c>
+      <c r="U15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B16" s="15"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:U16" si="1">AVERAGE(F6:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="M15" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="O15" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B16" s="16"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="O16" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B17" s="16"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="7" t="s">
-        <v>34</v>
+      <c r="K16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.74</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.91499999999999981</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.97</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R16" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T16" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U16" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G17" s="9">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H17" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I17" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J17" s="9">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="K17" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L17" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M17" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N17" s="9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O17" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B18" s="16"/>
-      <c r="C18" s="19"/>
+      <c r="P17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>1</v>
+      </c>
+      <c r="R17" s="9">
+        <v>1</v>
+      </c>
+      <c r="S17" s="9">
+        <v>1</v>
+      </c>
+      <c r="T17" s="9">
+        <v>1</v>
+      </c>
+      <c r="U17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B18" s="20"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9">
@@ -1441,10 +1834,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M18" s="9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N18" s="9">
         <v>0.4</v>
@@ -1452,53 +1845,86 @@
       <c r="O18" s="9">
         <v>0.5</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B19" s="16"/>
-      <c r="C19" s="19"/>
+      <c r="P18" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="S18" s="9">
+        <v>1</v>
+      </c>
+      <c r="T18" s="9">
+        <v>1</v>
+      </c>
+      <c r="U18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B19" s="20"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9">
         <v>0</v>
       </c>
       <c r="G19" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I19" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
         <v>0.3</v>
       </c>
-      <c r="K19" s="9">
+      <c r="N19" s="9">
         <v>0.4</v>
       </c>
-      <c r="L19" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
+      <c r="O19" s="9">
         <v>0.5</v>
       </c>
-      <c r="O19" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="16"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="24" t="s">
-        <v>38</v>
+      <c r="P19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0.94</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0.94</v>
+      </c>
+      <c r="S19" s="9">
+        <v>1</v>
+      </c>
+      <c r="T19" s="9">
+        <v>1</v>
+      </c>
+      <c r="U19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B20" s="20"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
@@ -1508,76 +1934,109 @@
         <v>0</v>
       </c>
       <c r="H20" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="9">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J20" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
         <v>0.3</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0</v>
       </c>
       <c r="N20" s="9">
         <v>0.4</v>
       </c>
       <c r="O20" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B21" s="16"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="10" t="s">
-        <v>36</v>
+        <v>0.5</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>1</v>
+      </c>
+      <c r="R20" s="9">
+        <v>1</v>
+      </c>
+      <c r="S20" s="9">
+        <v>1</v>
+      </c>
+      <c r="T20" s="9">
+        <v>1</v>
+      </c>
+      <c r="U20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B21" s="20"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9">
         <v>0</v>
       </c>
       <c r="G21" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H21" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I21" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J21" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K21" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L21" s="9">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="M21" s="9">
         <v>0</v>
       </c>
       <c r="N21" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O21" s="9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B22" s="16"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="10" t="s">
-        <v>31</v>
+        <v>0.75</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="S21" s="9">
+        <v>1</v>
+      </c>
+      <c r="T21" s="9">
+        <v>1</v>
+      </c>
+      <c r="U21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B22" s="20"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9">
@@ -1587,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I22" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J22" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K22" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L22" s="9">
         <v>0.4</v>
@@ -1610,12 +2069,30 @@
       <c r="O22" s="9">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B23" s="16"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="7" t="s">
-        <v>28</v>
+      <c r="P22" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="S22" s="9">
+        <v>1</v>
+      </c>
+      <c r="T22" s="9">
+        <v>1</v>
+      </c>
+      <c r="U22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B23" s="20"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9">
@@ -1637,22 +2114,40 @@
         <v>0</v>
       </c>
       <c r="L23" s="9">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M23" s="9">
         <v>0</v>
       </c>
       <c r="N23" s="9">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O23" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B24" s="16"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="7" t="s">
+        <v>0.7</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="S23" s="9">
+        <v>1</v>
+      </c>
+      <c r="T23" s="9">
+        <v>1</v>
+      </c>
+      <c r="U23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B24" s="20"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="7"/>
@@ -1684,14 +2179,32 @@
         <v>0.4</v>
       </c>
       <c r="O24" s="9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B25" s="16"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="10" t="s">
-        <v>29</v>
+        <v>0.75</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="S24" s="9">
+        <v>1</v>
+      </c>
+      <c r="T24" s="9">
+        <v>1</v>
+      </c>
+      <c r="U24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B25" s="20"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9">
@@ -1722,14 +2235,32 @@
         <v>0.4</v>
       </c>
       <c r="O25" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B26" s="16"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="10" t="s">
-        <v>37</v>
+        <v>0.75</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>1</v>
+      </c>
+      <c r="R25" s="9">
+        <v>1</v>
+      </c>
+      <c r="S25" s="9">
+        <v>1</v>
+      </c>
+      <c r="T25" s="9">
+        <v>1</v>
+      </c>
+      <c r="U25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B26" s="20"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9">
@@ -1751,23 +2282,41 @@
         <v>0</v>
       </c>
       <c r="L26" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M26" s="9">
         <v>0</v>
       </c>
       <c r="N26" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O26" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B27" s="16"/>
-      <c r="C27" s="19"/>
+        <v>0.7</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>1</v>
+      </c>
+      <c r="R26" s="9">
+        <v>1</v>
+      </c>
+      <c r="S26" s="9">
+        <v>1</v>
+      </c>
+      <c r="T26" s="9">
+        <v>1</v>
+      </c>
+      <c r="U26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B27" s="20"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9">
@@ -1800,61 +2349,87 @@
       <c r="O27" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B28" s="17"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="7"/>
+      <c r="P27" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>1</v>
+      </c>
+      <c r="R27" s="9">
+        <v>1</v>
+      </c>
+      <c r="S27" s="9">
+        <v>1</v>
+      </c>
+      <c r="T27" s="9">
+        <v>1</v>
+      </c>
+      <c r="U27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B28" s="20"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="6">
-        <f>AVERAGE(F15:F27)</f>
-        <v>7.6923076923076927E-3</v>
-      </c>
-      <c r="G28" s="6">
-        <f>AVERAGE(G15:G27)</f>
-        <v>1.4615384615384615E-2</v>
-      </c>
-      <c r="H28" s="6">
-        <f>AVERAGE(H15:H27)</f>
-        <v>3.461538461538461E-2</v>
-      </c>
-      <c r="I28" s="6">
-        <f>AVERAGE(I15:I27)</f>
-        <v>0.05</v>
-      </c>
-      <c r="J28" s="6">
-        <f>AVERAGE(J15:J27)</f>
-        <v>6.5384615384615374E-2</v>
-      </c>
-      <c r="K28" s="6">
-        <f>AVERAGE(K15:K27)</f>
-        <v>8.461538461538462E-2</v>
-      </c>
-      <c r="L28" s="6">
-        <f>AVERAGE(L15:L27)</f>
-        <v>0.31153846153846154</v>
-      </c>
-      <c r="M28" s="6">
-        <f>AVERAGE(M15:M27)</f>
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="N28" s="6">
-        <f>AVERAGE(N15:N27)</f>
-        <v>0.37692307692307697</v>
-      </c>
-      <c r="O28" s="6">
-        <f>AVERAGE(O15:O27)</f>
-        <v>0.61538461538461542</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="7"/>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="P28" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>1</v>
+      </c>
+      <c r="R28" s="9">
+        <v>1</v>
+      </c>
+      <c r="S28" s="9">
+        <v>1</v>
+      </c>
+      <c r="T28" s="9">
+        <v>1</v>
+      </c>
+      <c r="U28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B29" s="20"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9">
         <v>0</v>
@@ -1875,58 +2450,116 @@
         <v>0</v>
       </c>
       <c r="L29" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M29" s="9">
         <v>0</v>
       </c>
       <c r="N29" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B30" s="13"/>
-      <c r="C30" s="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="P29" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>1</v>
+      </c>
+      <c r="R29" s="9">
+        <v>1</v>
+      </c>
+      <c r="S29" s="9">
+        <v>1</v>
+      </c>
+      <c r="T29" s="9">
+        <v>1</v>
+      </c>
+      <c r="U29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B30" s="21"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="9">
-        <v>0</v>
-      </c>
-      <c r="J30" s="9">
-        <v>0</v>
-      </c>
-      <c r="K30" s="9">
-        <v>0</v>
-      </c>
-      <c r="L30" s="9">
-        <v>0</v>
-      </c>
-      <c r="M30" s="9">
-        <v>0</v>
-      </c>
-      <c r="N30" s="9">
-        <v>0</v>
-      </c>
-      <c r="O30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B31" s="13"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="7"/>
+      <c r="F30" s="6">
+        <f t="shared" ref="F30:U30" si="2">AVERAGE(F17:F29)</f>
+        <v>7.6923076923076927E-3</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4615384615384615E-2</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="2"/>
+        <v>3.461538461538461E-2</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="2"/>
+        <v>6.5384615384615374E-2</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="2"/>
+        <v>8.461538461538462E-2</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="2"/>
+        <v>0.31153846153846154</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="2"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="N30" s="6">
+        <f t="shared" si="2"/>
+        <v>0.37692307692307697</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="2"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="P30" s="6">
+        <f t="shared" si="2"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="Q30" s="6">
+        <f t="shared" si="2"/>
+        <v>0.97923076923076924</v>
+      </c>
+      <c r="R30" s="6">
+        <f t="shared" si="2"/>
+        <v>0.97923076923076924</v>
+      </c>
+      <c r="S30" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T30" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U30" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9">
         <v>0</v>
@@ -1935,34 +2568,54 @@
         <v>0</v>
       </c>
       <c r="H31" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I31" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J31" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K31" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L31" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M31" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N31" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B32" s="13"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="7"/>
+        <v>0.95</v>
+      </c>
+      <c r="P31" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>1</v>
+      </c>
+      <c r="R31" s="9">
+        <v>1</v>
+      </c>
+      <c r="S31" s="9">
+        <v>1</v>
+      </c>
+      <c r="T31" s="9">
+        <v>1</v>
+      </c>
+      <c r="U31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B32" s="14"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9">
         <v>0</v>
@@ -1983,22 +2636,42 @@
         <v>0</v>
       </c>
       <c r="L32" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M32" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N32" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B33" s="13"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="7"/>
+        <v>0.95</v>
+      </c>
+      <c r="P32" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>1</v>
+      </c>
+      <c r="R32" s="9">
+        <v>1</v>
+      </c>
+      <c r="S32" s="9">
+        <v>1</v>
+      </c>
+      <c r="T32" s="9">
+        <v>1</v>
+      </c>
+      <c r="U32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B33" s="14"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E33" s="7"/>
       <c r="F33" s="9">
         <v>0</v>
@@ -2016,25 +2689,45 @@
         <v>0</v>
       </c>
       <c r="K33" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L33" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M33" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N33" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B34" s="13"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="7"/>
+        <v>0.95</v>
+      </c>
+      <c r="P33" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>1</v>
+      </c>
+      <c r="R33" s="9">
+        <v>1</v>
+      </c>
+      <c r="S33" s="9">
+        <v>1</v>
+      </c>
+      <c r="T33" s="9">
+        <v>1</v>
+      </c>
+      <c r="U33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B34" s="14"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="E34" s="7"/>
       <c r="F34" s="9">
         <v>0</v>
@@ -2055,72 +2748,98 @@
         <v>0</v>
       </c>
       <c r="L34" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M34" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N34" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="O34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
+        <v>0.95</v>
+      </c>
+      <c r="P34" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>1</v>
+      </c>
+      <c r="R34" s="9">
+        <v>1</v>
+      </c>
+      <c r="S34" s="9">
+        <v>1</v>
+      </c>
+      <c r="T34" s="9">
+        <v>1</v>
+      </c>
+      <c r="U34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B35" s="14"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="7"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="6">
-        <f>AVERAGE(F29:F34)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
-        <f t="shared" ref="G35:O35" si="1">AVERAGE(G29:G34)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B36" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="7"/>
+      <c r="F35" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="R35" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="S35" s="9">
+        <v>1</v>
+      </c>
+      <c r="T35" s="9">
+        <v>1</v>
+      </c>
+      <c r="U35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B36" s="14"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="E36" s="7"/>
       <c r="F36" s="9">
         <v>0</v>
@@ -2150,13 +2869,33 @@
         <v>0</v>
       </c>
       <c r="O36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B37" s="13"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="P36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>1</v>
+      </c>
+      <c r="R36" s="9">
+        <v>1</v>
+      </c>
+      <c r="S36" s="9">
+        <v>1</v>
+      </c>
+      <c r="T36" s="9">
+        <v>1</v>
+      </c>
+      <c r="U36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B37" s="14"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="E37" s="7"/>
       <c r="F37" s="9">
         <v>0</v>
@@ -2186,49 +2925,107 @@
         <v>0</v>
       </c>
       <c r="O37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B38" s="13"/>
-      <c r="C38" s="19"/>
+        <v>0.1</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>0</v>
+      </c>
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="T37" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="U37" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B38" s="15"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9">
-        <v>0</v>
-      </c>
-      <c r="J38" s="9">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9">
-        <v>0</v>
-      </c>
-      <c r="O38" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B39" s="13"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="7"/>
+      <c r="F38" s="6">
+        <f t="shared" ref="F38:U38" si="3">AVERAGE(F31:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571435E-3</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="3"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="3"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" si="3"/>
+        <v>0.38571428571428573</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="3"/>
+        <v>0.54285714285714293</v>
+      </c>
+      <c r="N38" s="6">
+        <f t="shared" si="3"/>
+        <v>0.57857142857142863</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="3"/>
+        <v>0.65714285714285692</v>
+      </c>
+      <c r="P38" s="6">
+        <f t="shared" si="3"/>
+        <v>0.62857142857142867</v>
+      </c>
+      <c r="Q38" s="6">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="R38" s="6">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="S38" s="6">
+        <f t="shared" si="3"/>
+        <v>0.88571428571428579</v>
+      </c>
+      <c r="T38" s="6">
+        <f t="shared" si="3"/>
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="U38" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B39" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="E39" s="7"/>
       <c r="F39" s="9">
         <v>0</v>
@@ -2243,28 +3040,48 @@
         <v>0</v>
       </c>
       <c r="J39" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K39" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L39" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M39" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N39" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B40" s="13"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="P39" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>1</v>
+      </c>
+      <c r="R39" s="9">
+        <v>1</v>
+      </c>
+      <c r="S39" s="9">
+        <v>1</v>
+      </c>
+      <c r="T39" s="9">
+        <v>1</v>
+      </c>
+      <c r="U39" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B40" s="14"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E40" s="7"/>
       <c r="F40" s="9">
         <v>0</v>
@@ -2294,13 +3111,33 @@
         <v>0</v>
       </c>
       <c r="O40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B41" s="13"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="7"/>
+        <v>0.3</v>
+      </c>
+      <c r="P40" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>1</v>
+      </c>
+      <c r="R40" s="9">
+        <v>1</v>
+      </c>
+      <c r="S40" s="9">
+        <v>1</v>
+      </c>
+      <c r="T40" s="9">
+        <v>1</v>
+      </c>
+      <c r="U40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B41" s="14"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E41" s="7"/>
       <c r="F41" s="9">
         <v>0</v>
@@ -2315,28 +3152,48 @@
         <v>0</v>
       </c>
       <c r="J41" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K41" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L41" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M41" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N41" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O41" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B42" s="13"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="P41" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>1</v>
+      </c>
+      <c r="R41" s="9">
+        <v>1</v>
+      </c>
+      <c r="S41" s="9">
+        <v>1</v>
+      </c>
+      <c r="T41" s="9">
+        <v>1</v>
+      </c>
+      <c r="U41" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B42" s="14"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="E42" s="7"/>
       <c r="F42" s="9">
         <v>0</v>
@@ -2366,49 +3223,107 @@
         <v>0</v>
       </c>
       <c r="O42" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B43" s="13"/>
-      <c r="C43" s="19"/>
+        <v>0.8</v>
+      </c>
+      <c r="P42" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>1</v>
+      </c>
+      <c r="R42" s="9">
+        <v>1</v>
+      </c>
+      <c r="S42" s="9">
+        <v>1</v>
+      </c>
+      <c r="T42" s="9">
+        <v>1</v>
+      </c>
+      <c r="U42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B43" s="15"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="9">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0</v>
-      </c>
-      <c r="J43" s="9">
-        <v>0</v>
-      </c>
-      <c r="K43" s="9">
-        <v>0</v>
-      </c>
-      <c r="L43" s="9">
-        <v>0</v>
-      </c>
-      <c r="M43" s="9">
-        <v>0</v>
-      </c>
-      <c r="N43" s="9">
-        <v>0</v>
-      </c>
-      <c r="O43" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B44" s="13"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="7"/>
+      <c r="F43" s="6">
+        <f t="shared" ref="F43:U43" si="4">AVERAGE(F39:F42)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="L43" s="6">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="M43" s="6">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="N43" s="6">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="O43" s="6">
+        <f t="shared" si="4"/>
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="P43" s="6">
+        <f t="shared" si="4"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="Q43" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R43" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S43" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T43" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U43" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B44" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E44" s="7"/>
       <c r="F44" s="9">
         <v>0</v>
@@ -2426,25 +3341,45 @@
         <v>0</v>
       </c>
       <c r="K44" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L44" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M44" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N44" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="O44" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B45" s="13"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="P44" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>1</v>
+      </c>
+      <c r="R44" s="9">
+        <v>1</v>
+      </c>
+      <c r="S44" s="9">
+        <v>1</v>
+      </c>
+      <c r="T44" s="9">
+        <v>1</v>
+      </c>
+      <c r="U44" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B45" s="14"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E45" s="7"/>
       <c r="F45" s="9">
         <v>0</v>
@@ -2468,19 +3403,39 @@
         <v>0</v>
       </c>
       <c r="M45" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B46" s="13"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="P45" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>1</v>
+      </c>
+      <c r="R45" s="9">
+        <v>1</v>
+      </c>
+      <c r="S45" s="9">
+        <v>1</v>
+      </c>
+      <c r="T45" s="9">
+        <v>1</v>
+      </c>
+      <c r="U45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B46" s="14"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E46" s="7"/>
       <c r="F46" s="9">
         <v>0</v>
@@ -2504,69 +3459,95 @@
         <v>0</v>
       </c>
       <c r="M46" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P46" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="9">
+        <v>1</v>
+      </c>
+      <c r="R46" s="9">
+        <v>1</v>
+      </c>
+      <c r="S46" s="9">
+        <v>1</v>
+      </c>
+      <c r="T46" s="9">
+        <v>1</v>
+      </c>
+      <c r="U46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B47" s="14"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="7"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E47" s="7"/>
-      <c r="F47" s="6">
-        <f>AVERAGE(F36:F46)</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="6">
-        <f t="shared" ref="G47:O47" si="2">AVERAGE(G36:G46)</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B48" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="7"/>
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>0</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N47" s="9">
+        <v>1</v>
+      </c>
+      <c r="O47" s="9">
+        <v>1</v>
+      </c>
+      <c r="P47" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>1</v>
+      </c>
+      <c r="R47" s="9">
+        <v>1</v>
+      </c>
+      <c r="S47" s="9">
+        <v>1</v>
+      </c>
+      <c r="T47" s="9">
+        <v>1</v>
+      </c>
+      <c r="U47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B48" s="14"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="E48" s="7"/>
       <c r="F48" s="9">
         <v>0</v>
@@ -2590,19 +3571,39 @@
         <v>0</v>
       </c>
       <c r="M48" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N48" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B49" s="13"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="7"/>
+        <v>0.95</v>
+      </c>
+      <c r="P48" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>1</v>
+      </c>
+      <c r="R48" s="9">
+        <v>1</v>
+      </c>
+      <c r="S48" s="9">
+        <v>1</v>
+      </c>
+      <c r="T48" s="9">
+        <v>1</v>
+      </c>
+      <c r="U48" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B49" s="14"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="E49" s="7"/>
       <c r="F49" s="9">
         <v>0</v>
@@ -2634,11 +3635,31 @@
       <c r="O49" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B50" s="13"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="7"/>
+      <c r="P49" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>1</v>
+      </c>
+      <c r="R49" s="9">
+        <v>1</v>
+      </c>
+      <c r="S49" s="9">
+        <v>1</v>
+      </c>
+      <c r="T49" s="9">
+        <v>1</v>
+      </c>
+      <c r="U49" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="14"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E50" s="7"/>
       <c r="F50" s="9">
         <v>0</v>
@@ -2650,290 +3671,193 @@
         <v>0</v>
       </c>
       <c r="I50" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J50" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K50" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L50" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M50" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N50" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="O50" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B51" s="13"/>
-      <c r="C51" s="21"/>
+        <v>0.9</v>
+      </c>
+      <c r="P50" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q50" s="9">
+        <v>1</v>
+      </c>
+      <c r="R50" s="9">
+        <v>1</v>
+      </c>
+      <c r="S50" s="9">
+        <v>1</v>
+      </c>
+      <c r="T50" s="9">
+        <v>1</v>
+      </c>
+      <c r="U50" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B51" s="15"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="9">
-        <v>0</v>
-      </c>
-      <c r="G51" s="9">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9">
-        <v>0</v>
-      </c>
-      <c r="I51" s="9">
-        <v>0</v>
-      </c>
-      <c r="J51" s="9">
-        <v>0</v>
-      </c>
-      <c r="K51" s="9">
-        <v>0</v>
-      </c>
-      <c r="L51" s="9">
-        <v>0</v>
-      </c>
-      <c r="M51" s="9">
-        <v>0</v>
-      </c>
-      <c r="N51" s="9">
-        <v>0</v>
-      </c>
-      <c r="O51" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B52" s="13"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="9">
-        <v>0</v>
-      </c>
-      <c r="G52" s="9">
-        <v>0</v>
-      </c>
-      <c r="H52" s="9">
-        <v>0</v>
-      </c>
-      <c r="I52" s="9">
-        <v>0</v>
-      </c>
-      <c r="J52" s="9">
-        <v>0</v>
-      </c>
-      <c r="K52" s="9">
-        <v>0</v>
-      </c>
-      <c r="L52" s="9">
-        <v>0</v>
-      </c>
-      <c r="M52" s="9">
-        <v>0</v>
-      </c>
-      <c r="N52" s="9">
-        <v>0</v>
-      </c>
-      <c r="O52" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B53" s="13"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="9">
-        <v>0</v>
-      </c>
-      <c r="G53" s="9">
-        <v>0</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0</v>
-      </c>
-      <c r="I53" s="9">
-        <v>0</v>
-      </c>
-      <c r="J53" s="9">
-        <v>0</v>
-      </c>
-      <c r="K53" s="9">
-        <v>0</v>
-      </c>
-      <c r="L53" s="9">
-        <v>0</v>
-      </c>
-      <c r="M53" s="9">
-        <v>0</v>
-      </c>
-      <c r="N53" s="9">
-        <v>0</v>
-      </c>
-      <c r="O53" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="13"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="9">
-        <v>0</v>
-      </c>
-      <c r="G54" s="9">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9">
-        <v>0</v>
-      </c>
-      <c r="I54" s="9">
-        <v>0</v>
-      </c>
-      <c r="J54" s="9">
-        <v>0</v>
-      </c>
-      <c r="K54" s="9">
-        <v>0</v>
-      </c>
-      <c r="L54" s="9">
-        <v>0</v>
-      </c>
-      <c r="M54" s="9">
-        <v>0</v>
-      </c>
-      <c r="N54" s="9">
-        <v>0</v>
-      </c>
-      <c r="O54" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B55" s="14"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="7"/>
-      <c r="F55" s="6">
-        <f>AVERAGE(F48:F54)</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="6">
-        <f t="shared" ref="G55:O55" si="3">AVERAGE(G48:G54)</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="F51" s="6">
+        <f t="shared" ref="F51:U51" si="5">AVERAGE(F44:F50)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <f t="shared" si="5"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="J51" s="6">
+        <f t="shared" si="5"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="K51" s="6">
+        <f t="shared" si="5"/>
+        <v>0.12857142857142859</v>
+      </c>
+      <c r="L51" s="6">
+        <f t="shared" si="5"/>
+        <v>0.18571428571428569</v>
+      </c>
+      <c r="M51" s="6">
+        <f t="shared" si="5"/>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="N51" s="6">
+        <f t="shared" si="5"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="O51" s="6">
+        <f t="shared" si="5"/>
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="P51" s="6">
+        <f t="shared" si="5"/>
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="Q51" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R51" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S51" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T51" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U51" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="E52" s="8"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="E53" s="8"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="E54" s="8"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="E55" s="8"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.4">
       <c r="E56" s="8"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.4">
       <c r="E57" s="8"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.4">
       <c r="E58" s="8"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="E59" s="8"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="E60" s="8"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="E61" s="8"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="E62" s="8"/>
-      <c r="F62" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="B15:B28"/>
-    <mergeCell ref="C15:C28"/>
-    <mergeCell ref="C6:C14"/>
-    <mergeCell ref="B48:B55"/>
-    <mergeCell ref="C48:C55"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="B36:B47"/>
-    <mergeCell ref="C36:C47"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="C17:C30"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B15:C15 E15 B29:C29 D34:E34 B48 B16:E27">
-    <cfRule type="cellIs" dxfId="5" priority="176" operator="equal">
+  <conditionalFormatting sqref="B39:D42">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:D42">
-    <cfRule type="cellIs" dxfId="4" priority="99" operator="equal">
+  <conditionalFormatting sqref="C44">
+    <cfRule type="cellIs" dxfId="8" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48 D54:E54">
-    <cfRule type="cellIs" dxfId="3" priority="137" operator="equal">
+  <conditionalFormatting sqref="D8:D12">
+    <cfRule type="cellIs" dxfId="7" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D13">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="D15 B17:C29 E17:E29 B31:C31 B44">
+    <cfRule type="cellIs" dxfId="6" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D46">
-    <cfRule type="cellIs" dxfId="1" priority="100" operator="equal">
+  <conditionalFormatting sqref="D50:E50">
+    <cfRule type="cellIs" dxfId="5" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E10 B8:B10">
-    <cfRule type="cellIs" dxfId="0" priority="189" operator="equal">
+  <conditionalFormatting sqref="E7:E10">
+    <cfRule type="cellIs" dxfId="4" priority="345" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F34">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="E36:E37">
+    <cfRule type="cellIs" dxfId="3" priority="278" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:J12 P6:Q6 R6:S15 S6 P7:Q7 S7 P8:Q8 S8 P9:Q9 S9 P10:Q10 S10 P11:Q11 S11 P12:Q12 S12 F13:O14 P13:Q13 S13 G14:Q14 S14 F15:J15 P15:Q15 S15 T6:U15">
+    <cfRule type="dataBar" priority="599">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2941,13 +3865,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{200EB0A9-E50E-4D7B-81FC-D6B5C5318E58}</x14:id>
+          <x14:id>{F4B4E4AD-8182-9383-F4B4-E4AD81829383}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F46">
-    <cfRule type="dataBar" priority="438">
+  <conditionalFormatting sqref="F17:O28 P17:Q17 R17:S29 S17 P18:Q18 S18 P19:Q19 S19 P20:Q20 S20 P21:Q21 S21 P22:Q22 S22 P23:Q23 S23 P24:Q24 S24 P25:Q25 S25 P26:Q26 S26 H27:Q27 S27 F28 H28:Q28 S28 F29:Q29 S29 T17:U29">
+    <cfRule type="dataBar" priority="156">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2955,13 +3879,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
+          <x14:id>{58184841-2D1E-3F2F-5818-48412D1E3F2F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:O16">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="661">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2969,13 +3891,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31712168-4477-4657-3171-216844774657}</x14:id>
+          <x14:id>{C484D49D-B182-A3B3-C484-D49DB182A3B3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48:O54">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="F39:O42 H39:Q39 R39:S42 S39 F40:F42 H40:O42 P40:Q40 S40 P41:Q41 S41 P42:Q42 S42 T39:U42">
+    <cfRule type="dataBar" priority="503">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2983,11 +3905,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9BA6F4FF-9998-4C29-B66D-7EB818FEAD16}</x14:id>
+          <x14:id>{4AFA5A13-3F1E-3D2C-4AFA-5A133F1E3D2C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="8">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:O48 P44:Q44 R44:S50 S44 P45:Q45 S45 P46:Q46 S46 P47:Q47 S47 P48:Q48 S48 F49:Q49 S49 F50:Q50 S50 T44:U50">
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2995,13 +3919,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{35ACB5A8-2C25-4FE2-9A84-75807869EF8E}</x14:id>
+          <x14:id>{CC8CDC95-B98A-ABBB-CC8C-DC95B98AABBB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G34">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3009,13 +3931,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{15392C86-4399-4B7A-AFFA-162CFC9F8E26}</x14:id>
+          <x14:id>{48E85811-3D3E-2F3F-48E8-58113D3E2F3F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37:G46">
-    <cfRule type="dataBar" priority="439">
+  <conditionalFormatting sqref="F31:Q31 R31:S37 S31 F32:Q32 S32 F33:Q33 S33 F34:Q34 S34 F35:Q35 S35 F36:Q36 S36 F37:Q37 S37 T31:U37">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3023,13 +3945,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D393C38A-A686-A4B5-D393-C38AA686A4B5}</x14:id>
+          <x14:id>{7E3E6E29-5506-17E7-7E3E-6E29550617E7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36:O36">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="G17:O26 P17:Q17 R17:S29 S17 P18:Q18 S18 P19:Q19 S19 P20:Q20 S20 P21:Q21 S21 P22:Q22 S22 P23:Q23 S23 P24:Q24 S24 P25:Q25 S25 P26:Q26 S26 G27:O29 P27:Q27 S27 P28:Q28 S28 P29:Q29 S29 T17:U29">
+    <cfRule type="dataBar" priority="666">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3037,13 +3959,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}</x14:id>
+          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H34">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="K6:O12 P6:Q6 R6:S15 S6 P7:Q7 S7 P8:Q8 S8 P9:Q9 S9 P10:Q10 S10 P11:Q11 S11 P12:Q12 S12 G13:Q13 S13 G14:Q14 S14 K15:Q15 S15 T6:U15">
+    <cfRule type="dataBar" priority="574">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3051,13 +3973,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{63DB3C3A-3B48-46D9-92ED-5E7C499B66EE}</x14:id>
+          <x14:id>{CE8EDE97-BB9A-B9A8-CE8E-DE97BB9AB9A8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:O46 T36:V46">
-    <cfRule type="dataBar" priority="456">
+  <conditionalFormatting sqref="Q6:S15 S6 Q7 S7 Q8 S8 Q9 S9 Q10 S10 Q11 S11 Q12 S12 Q13 S13 Q14 S14 Q15 S15 T6:U15">
+    <cfRule type="dataBar" priority="670">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3065,13 +3987,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}</x14:id>
+          <x14:id>{DC9CCC85-A98A-BBAB-DC9C-CC85A98ABBAB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:O34">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="Q31:S37 S31 Q32 S32 Q33 S33 Q34 S34 Q35 S35 Q36 S36 Q37 S37 T31:U37">
+    <cfRule type="dataBar" priority="746">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3079,13 +4001,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DA104626-4CF2-4FF1-BCA6-644D51356822}</x14:id>
+          <x14:id>{581848D9-2506-3727-5818-48D925063727}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T6:V7 H6:O13">
-    <cfRule type="dataBar" priority="473">
+  <conditionalFormatting sqref="Q31:S37 S36 T31:U37">
+    <cfRule type="dataBar" priority="602">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3093,13 +4015,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E1411158-7444-7667-E141-115874447667}</x14:id>
+          <x14:id>{4262521B-3716-3524-4262-521B37163524}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8:V13 F6:G13">
-    <cfRule type="dataBar" priority="470">
+  <conditionalFormatting sqref="Q39:S42 S39 Q40 S40 Q41 S41 Q42 S42 T39:U42">
+    <cfRule type="dataBar" priority="505">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3107,13 +4029,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}</x14:id>
+          <x14:id>{C686D69F-B392-B1A7-C686-D69FB392B1A7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8:V13">
-    <cfRule type="dataBar" priority="454">
+  <conditionalFormatting sqref="Q44:S50 S44 Q45 S45 Q46 S46 Q47 S47 Q48 S48 Q49 S49 Q50 S50 T44:U50">
+    <cfRule type="dataBar" priority="745">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3121,13 +4043,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8DCD9DD4-F8C8-FAEB-8DCD-9DD4F8C8FAEB}</x14:id>
+          <x14:id>{D494C48D-A182-B3A3-D494-C48DA182B3A3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T34:V34">
-    <cfRule type="dataBar" priority="460">
+  <conditionalFormatting sqref="R31:S37 F36:Q36 S36 T31:U37">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3135,13 +4057,2360 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}</x14:id>
+          <x14:id>{DE9ECE87-AB8B-A9B8-DE9E-CE87AB8BA9B8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T54:V54">
-    <cfRule type="dataBar" priority="459">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F4B4E4AD-8182-9383-F4B4-E4AD81829383}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F6:J12 P6:Q6 R6:S15 S6 P7:Q7 S7 P8:Q8 S8 P9:Q9 S9 P10:Q10 S10 P11:Q11 S11 P12:Q12 S12 F13:O14 P13:Q13 S13 G14:Q14 S14 F15:J15 P15:Q15 S15 T6:U15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{58184841-2D1E-3F2F-5818-48412D1E3F2F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{C484D49D-B182-A3B3-C484-D49DB182A3B3}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F17:O28 P17:Q17 R17:S29 S17 P18:Q18 S18 P19:Q19 S19 P20:Q20 S20 P21:Q21 S21 P22:Q22 S22 P23:Q23 S23 P24:Q24 S24 P25:Q25 S25 P26:Q26 S26 H27:Q27 S27 F28 H28:Q28 S28 F29:Q29 S29 T17:U29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4AFA5A13-3F1E-3D2C-4AFA-5A133F1E3D2C}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F39:O42 H39:Q39 R39:S42 S39 F40:F42 H40:O42 P40:Q40 S40 P41:Q41 S41 P42:Q42 S42 T39:U42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CC8CDC95-B98A-ABBB-CC8C-DC95B98AABBB}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{48E85811-3D3E-2F3F-48E8-58113D3E2F3F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F44:O48 P44:Q44 R44:S50 S44 P45:Q45 S45 P46:Q46 S46 P47:Q47 S47 P48:Q48 S48 F49:Q49 S49 F50:Q50 S50 T44:U50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7E3E6E29-5506-17E7-7E3E-6E29550617E7}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F31:Q31 R31:S37 S31 F32:Q32 S32 F33:Q33 S33 F34:Q34 S34 F35:Q35 S35 F36:Q36 S36 F37:Q37 S37 T31:U37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G17:O26 P17:Q17 R17:S29 S17 P18:Q18 S18 P19:Q19 S19 P20:Q20 S20 P21:Q21 S21 P22:Q22 S22 P23:Q23 S23 P24:Q24 S24 P25:Q25 S25 P26:Q26 S26 G27:O29 P27:Q27 S27 P28:Q28 S28 P29:Q29 S29 T17:U29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CE8EDE97-BB9A-B9A8-CE8E-DE97BB9AB9A8}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K6:O12 P6:Q6 R6:S15 S6 P7:Q7 S7 P8:Q8 S8 P9:Q9 S9 P10:Q10 S10 P11:Q11 S11 P12:Q12 S12 G13:Q13 S13 G14:Q14 S14 K15:Q15 S15 T6:U15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DC9CCC85-A98A-BBAB-DC9C-CC85A98ABBAB}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q6:S15 S6 Q7 S7 Q8 S8 Q9 S9 Q10 S10 Q11 S11 Q12 S12 Q13 S13 Q14 S14 Q15 S15 T6:U15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{581848D9-2506-3727-5818-48D925063727}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q31:S37 S31 Q32 S32 Q33 S33 Q34 S34 Q35 S35 Q36 S36 Q37 S37 T31:U37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4262521B-3716-3524-4262-521B37163524}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q31:S37 S36 T31:U37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C686D69F-B392-B1A7-C686-D69FB392B1A7}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q39:S42 S39 Q40 S40 Q41 S41 Q42 S42 T39:U42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D494C48D-A182-B3A3-D494-C48DA182B3A3}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q44:S50 S44 Q45 S45 Q46 S46 Q47 S47 Q48 S48 Q49 S49 Q50 S50 T44:U50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DE9ECE87-AB8B-A9B8-DE9E-CE87AB8BA9B8}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R31:S37 F36:Q36 S36 T31:U37</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:AC34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.296875" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="8" customWidth="1"/>
+    <col min="7" max="21" width="10.59765625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="9" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45211</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45212</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45213</v>
+      </c>
+      <c r="J2" s="3">
+        <v>45214</v>
+      </c>
+      <c r="K2" s="3">
+        <v>45215</v>
+      </c>
+      <c r="L2" s="3">
+        <v>45216</v>
+      </c>
+      <c r="M2" s="3">
+        <v>45217</v>
+      </c>
+      <c r="N2" s="3">
+        <v>45218</v>
+      </c>
+      <c r="O2" s="3">
+        <v>45219</v>
+      </c>
+      <c r="P2" s="3">
+        <v>45220</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>45221</v>
+      </c>
+      <c r="R2" s="3">
+        <v>45222</v>
+      </c>
+      <c r="S2" s="3">
+        <v>45223</v>
+      </c>
+      <c r="T2" s="3">
+        <v>45224</v>
+      </c>
+      <c r="U2" s="3">
+        <v>45225</v>
+      </c>
+      <c r="V2" s="3">
+        <v>45226</v>
+      </c>
+      <c r="W2" s="3">
+        <v>45227</v>
+      </c>
+      <c r="X2" s="3">
+        <v>45228</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>45229</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>45230</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>45231</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>45232</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <f>AVERAGE(F12,F22,F27)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(G12,G22,G27)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f>AVERAGE(H12,H22,H27)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>AVERAGE(I12,I22,I27)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <f>AVERAGE(J12,J22,J27)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <f>AVERAGE(K12,K22,K27)</f>
+        <v>2.592592592592593E-3</v>
+      </c>
+      <c r="L3" s="6">
+        <f>AVERAGE(L12,L22,L27)</f>
+        <v>4.0740740740740746E-3</v>
+      </c>
+      <c r="M3" s="6">
+        <f>AVERAGE(M12,M22,M27)</f>
+        <v>6.2962962962962964E-3</v>
+      </c>
+      <c r="N3" s="6">
+        <f>AVERAGE(N12,N22,N27)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <f>AVERAGE(O12,O22,O27)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <f>AVERAGE(P12,P22,P27)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>AVERAGE(Q12,Q22,Q27)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <f>AVERAGE(R12,R22,R27)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <f>AVERAGE(S12,S22,S27)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <f>AVERAGE(T12,T22,T27)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <f>AVERAGE(U12,U22,U27)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <f>AVERAGE(V12,V22,V27)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <f>AVERAGE(W12,W22,W27)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
+        <f>AVERAGE(X12,X22,X27)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
+        <f>AVERAGE(Y12,Y22,Y27)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6">
+        <f>AVERAGE(Z12,Z22,Z27)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="6">
+        <f>AVERAGE(AA12,AA22,AA27)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="6">
+        <f>AVERAGE(AB12,AB22,AB27)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="6">
+        <f>AVERAGE(AC12,AC22,AC27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5" spans="2:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45211</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45212</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45213</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45214</v>
+      </c>
+      <c r="K5" s="3">
+        <v>45215</v>
+      </c>
+      <c r="L5" s="3">
+        <v>45216</v>
+      </c>
+      <c r="M5" s="3">
+        <v>45217</v>
+      </c>
+      <c r="N5" s="3">
+        <v>45218</v>
+      </c>
+      <c r="O5" s="3">
+        <v>45219</v>
+      </c>
+      <c r="P5" s="3">
+        <v>45220</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>45221</v>
+      </c>
+      <c r="R5" s="3">
+        <v>45222</v>
+      </c>
+      <c r="S5" s="3">
+        <v>45223</v>
+      </c>
+      <c r="T5" s="3">
+        <v>45224</v>
+      </c>
+      <c r="U5" s="3">
+        <v>45225</v>
+      </c>
+      <c r="V5" s="3">
+        <v>45226</v>
+      </c>
+      <c r="W5" s="3">
+        <v>45227</v>
+      </c>
+      <c r="X5" s="3">
+        <v>45228</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>45229</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>45230</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>45231</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>45232</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="14"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B8" s="14"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B9" s="14"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B10" s="14"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0</v>
+      </c>
+      <c r="V11" s="9">
+        <v>0</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0</v>
+      </c>
+      <c r="X11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B12" s="15"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:AC12" si="0">AVERAGE(F6:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="L13" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+      <c r="V13" s="9">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B14" s="20"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B15" s="20"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>0</v>
+      </c>
+      <c r="X15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B16" s="20"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="M16" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
+      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0</v>
+      </c>
+      <c r="X16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B17" s="20"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0</v>
+      </c>
+      <c r="X17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B18" s="20"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B19" s="20"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0</v>
+      </c>
+      <c r="X19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B20" s="20"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0</v>
+      </c>
+      <c r="X20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B21" s="20"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9">
+        <v>0</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0</v>
+      </c>
+      <c r="X21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B22" s="21"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6">
+        <f>AVERAGE(F13:F21)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <f>AVERAGE(G13:G21)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <f>AVERAGE(H13:H21)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <f>AVERAGE(I13:I21)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <f>AVERAGE(J13:J21)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <f>AVERAGE(K13:K21)</f>
+        <v>7.7777777777777784E-3</v>
+      </c>
+      <c r="L22" s="6">
+        <f>AVERAGE(L13:L21)</f>
+        <v>1.2222222222222225E-2</v>
+      </c>
+      <c r="M22" s="6">
+        <f>AVERAGE(M13:M21)</f>
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="N22" s="6">
+        <f>AVERAGE(N13:N21)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <f>AVERAGE(O13:O21)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <f>AVERAGE(P13:P21)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <f>AVERAGE(Q13:Q21)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
+        <f>AVERAGE(R13:R21)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="6">
+        <f>AVERAGE(S13:S21)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="6">
+        <f>AVERAGE(T13:T21)</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="6">
+        <f>AVERAGE(U13:U21)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="6">
+        <f>AVERAGE(V13:V21)</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="6">
+        <f>AVERAGE(W13:W21)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="6">
+        <f>AVERAGE(X13:X21)</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="6">
+        <f>AVERAGE(Y13:Y21)</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="6">
+        <f>AVERAGE(Z13:Z21)</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="6">
+        <f>AVERAGE(AA13:AA21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="6">
+        <f>AVERAGE(AB13:AB21)</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="6">
+        <f>AVERAGE(AC13:AC21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0</v>
+      </c>
+      <c r="U23" s="9">
+        <v>0</v>
+      </c>
+      <c r="V23" s="9">
+        <v>0</v>
+      </c>
+      <c r="W23" s="9">
+        <v>0</v>
+      </c>
+      <c r="X23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B24" s="14"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0</v>
+      </c>
+      <c r="U24" s="9">
+        <v>0</v>
+      </c>
+      <c r="V24" s="9">
+        <v>0</v>
+      </c>
+      <c r="W24" s="9">
+        <v>0</v>
+      </c>
+      <c r="X24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B25" s="14"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="9">
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
+        <v>0</v>
+      </c>
+      <c r="W25" s="9">
+        <v>0</v>
+      </c>
+      <c r="X25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B26" s="14"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+      <c r="U26" s="9">
+        <v>0</v>
+      </c>
+      <c r="V26" s="9">
+        <v>0</v>
+      </c>
+      <c r="W26" s="9">
+        <v>0</v>
+      </c>
+      <c r="X26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B27" s="15"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6">
+        <f t="shared" ref="F27:AC27" si="1">AVERAGE(F23:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E28" s="8"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E29" s="8"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E30" s="8"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E31" s="8"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E32" s="8"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E33" s="8"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E34" s="8"/>
+      <c r="F34" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B13:C21 E13:E21 B23:C23">
+    <cfRule type="cellIs" dxfId="2" priority="246" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D11">
+    <cfRule type="cellIs" dxfId="1" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E10">
+    <cfRule type="cellIs" dxfId="0" priority="247" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:T4 F13:F21 G6:AC27 G3:AC3">
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3149,13 +6418,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6727773E-1231-1DC1-6727-773E12311DC1}</x14:id>
+          <x14:id>{58184841-2D1E-3F2F-5818-48412D1E3F2F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:O16 F17:G27">
-    <cfRule type="dataBar" priority="488">
+    <cfRule type="dataBar" priority="528">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3163,13 +6430,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B5F5A5EC-C5F3-C2D3-B5F5-A5ECC5F3C2D3}</x14:id>
+          <x14:id>{C484D49D-B182-A3B3-C484-D49DB182A3B3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T15:V27 G15:O16 H17:O27">
-    <cfRule type="dataBar" priority="492">
+  <conditionalFormatting sqref="P3:T4 G6:AC27 G3:AC3">
+    <cfRule type="dataBar" priority="533">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3177,18 +6444,148 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DD9DCD84-A899-AABB-DD9D-CD84A899AABB}</x14:id>
+          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:T4 F23:F26 G6:AC27 G3:AC3">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7E3E6E29-5506-17E7-7E3E-6E29550617E7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:T4 F6:AC11 G12:AC27 P6:T27 G3:AC3">
+    <cfRule type="dataBar" priority="747">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F4B4E4AD-8182-9383-F4B4-E4AD81829383}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:T4 G6:AC27 G3:AC3">
+    <cfRule type="dataBar" priority="761">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CE8EDE97-BB9A-B9A8-CE8E-DE97BB9AB9A8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:T4 G6:AC27 G3:AC3">
+    <cfRule type="dataBar" priority="827">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CC8CDC95-B98A-ABBB-CC8C-DC95B98AABBB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="828">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{48E85811-3D3E-2F3F-48E8-58113D3E2F3F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="829">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4AFA5A13-3F1E-3D2C-4AFA-5A133F1E3D2C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="830">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C686D69F-B392-B1A7-C686-D69FB392B1A7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="831">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D494C48D-A182-B3A3-D494-C48DA182B3A3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="832">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{581848D9-2506-3727-5818-48D925063727}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:T4 G6:AC27 G3:AC3">
+    <cfRule type="dataBar" priority="881">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DC9CCC85-A98A-BBAB-DC9C-CC85A98ABBAB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{200EB0A9-E50E-4D7B-81FC-D6B5C5318E58}">
+          <x14:cfRule type="dataBar" id="{58184841-2D1E-3F2F-5818-48412D1E3F2F}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3196,10 +6593,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F29:F34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5717478E-22D2-2A31-5717-478E22D22A31}">
+          <x14:cfRule type="dataBar" id="{C484D49D-B182-A3B3-C484-D49DB182A3B3}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3207,10 +6601,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F36:F46</xm:sqref>
+          <xm:sqref>P3:T4 F13:F21 G6:AC27 G3:AC3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">
+          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3218,10 +6612,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F15:O16</xm:sqref>
+          <xm:sqref>P3:T4 G6:AC27 G3:AC3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9BA6F4FF-9998-4C29-B66D-7EB818FEAD16}">
+          <x14:cfRule type="dataBar" id="{7E3E6E29-5506-17E7-7E3E-6E29550617E7}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3229,7 +6623,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{35ACB5A8-2C25-4FE2-9A84-75807869EF8E}">
+          <xm:sqref>P3:T4 F23:F26 G6:AC27 G3:AC3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F4B4E4AD-8182-9383-F4B4-E4AD81829383}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3237,10 +6634,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F48:O54</xm:sqref>
+          <xm:sqref>P3:T4 F6:AC11 G12:AC27 P6:T27 G3:AC3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{15392C86-4399-4B7A-AFFA-162CFC9F8E26}">
+          <x14:cfRule type="dataBar" id="{CE8EDE97-BB9A-B9A8-CE8E-DE97BB9AB9A8}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3248,10 +6645,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G29:G34</xm:sqref>
+          <xm:sqref>P3:T4 G6:AC27 G3:AC3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
+          <x14:cfRule type="dataBar" id="{CC8CDC95-B98A-ABBB-CC8C-DC95B98AABBB}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3259,10 +6656,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G37:G46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}">
+          <x14:cfRule type="dataBar" id="{48E85811-3D3E-2F3F-48E8-58113D3E2F3F}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3270,10 +6664,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G36:O36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{63DB3C3A-3B48-46D9-92ED-5E7C499B66EE}">
+          <x14:cfRule type="dataBar" id="{4AFA5A13-3F1E-3D2C-4AFA-5A133F1E3D2C}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3281,10 +6672,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H29:H34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
+          <x14:cfRule type="dataBar" id="{C686D69F-B392-B1A7-C686-D69FB392B1A7}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3292,10 +6680,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H36:O46 T36:V46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DA104626-4CF2-4FF1-BCA6-644D51356822}">
+          <x14:cfRule type="dataBar" id="{D494C48D-A182-B3A3-D494-C48DA182B3A3}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3303,10 +6688,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I29:O34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E1411158-7444-7667-E141-115874447667}">
+          <x14:cfRule type="dataBar" id="{581848D9-2506-3727-5818-48D925063727}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3314,10 +6696,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T6:V7 H6:O13</xm:sqref>
+          <xm:sqref>P3:T4 G6:AC27 G3:AC3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}">
+          <x14:cfRule type="dataBar" id="{DC9CCC85-A98A-BBAB-DC9C-CC85A98ABBAB}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3325,62 +6707,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T8:V13 F6:G13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8DCD9DD4-F8C8-FAEB-8DCD-9DD4F8C8FAEB}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>T8:V13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>T34:V34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6727773E-1231-1DC1-6727-773E12311DC1}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>T54:V54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B5F5A5EC-C5F3-C2D3-B5F5-A5ECC5F3C2D3}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F15:O16 F17:G27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DD9DCD84-A899-AABB-DD9D-CD84A899AABB}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>T15:V27 G15:O16 H17:O27</xm:sqref>
+          <xm:sqref>P3:T4 G6:AC27 G3:AC3</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
